--- a/src/main/resources/WritingListDetail.xlsx
+++ b/src/main/resources/WritingListDetail.xlsx
@@ -19,6 +19,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <r>
+      <rPr>
+        <sz val="19"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
       <t>{ctime}</t>
     </r>
     <r>
@@ -101,7 +107,7 @@
     <t>{.appraiseResult}</t>
   </si>
   <si>
-    <t>审批人：{reviewSignatureUser}</t>
+    <t>审批人：</t>
   </si>
   <si>
     <t>复核人:{appraisalReviewUser}</t>
@@ -115,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -167,6 +173,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,44 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,56 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,9 +276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +292,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="19"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -325,13 +331,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,169 +487,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,21 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,8 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,8 +563,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +589,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,21 +622,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1148,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/src/main/resources/WritingListDetail.xlsx
+++ b/src/main/resources/WritingListDetail.xlsx
@@ -122,9 +122,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -173,17 +173,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,50 +202,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,11 +263,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,47 +303,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,43 +331,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,139 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,20 +527,65 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,22 +609,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,38 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,145 +630,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/src/main/resources/WritingListDetail.xlsx
+++ b/src/main/resources/WritingListDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView windowWidth="21000" windowHeight="15255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>二0二二年六月劳动能力鉴定等级人员名单</t>
+    <t>{.ctime}劳动能力鉴定等级人员名单</t>
   </si>
   <si>
     <t>单位名称：南平市劳动能力鉴定委员会</t>
   </si>
   <si>
-    <t>2022年6月1日</t>
+    <t>{.time}</t>
   </si>
   <si>
     <t>序号</t>
@@ -134,6 +134,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -141,7 +171,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,23 +254,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -179,106 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,37 +293,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,145 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,11 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,32 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +579,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,137 +619,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,12 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -786,25 +780,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,8 +1114,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1177,104 +1156,104 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="18" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:11">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:11">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="17" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
